--- a/data/trans_orig/P44_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D9A01BD-8473-4700-9C1A-C232C60412B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB1887B3-E13C-4E38-B247-C357037547BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD733104-1E9A-4889-BCEA-025F9B6DFD62}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8B287B0F-04B5-4E01-A22A-8439D1027B45}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1714,7 +1714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{271E7F6C-A295-424D-812F-2671FC0CF316}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5669A6A6-171E-4125-B944-4C603D12CDD6}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5081,7 +5081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E1E7BA-297D-4B5F-9E61-02B04E1CAD68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5B2D2C-3B90-44A2-AE01-BD4C25A6F682}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8104,7 +8104,7 @@
         <v>8743</v>
       </c>
       <c r="N60" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O60" s="7" t="s">
         <v>388</v>
@@ -8410,7 +8410,7 @@
         <v>8743</v>
       </c>
       <c r="N66" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O66" s="7" t="s">
         <v>60</v>

--- a/data/trans_orig/P44_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44_2007-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB1887B3-E13C-4E38-B247-C357037547BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1D093FD-E698-4A3B-AD12-305F7E0722E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8B287B0F-04B5-4E01-A22A-8439D1027B45}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B1D91FB6-F2CB-4982-8EF8-0A572617C06B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="427">
   <si>
     <t>Población según lo que opinan de tomar el sol en 2007 (Tasa respuesta: 99,85%)</t>
   </si>
@@ -93,28 +93,28 @@
     <t>5,9%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
   </si>
   <si>
     <t>7,0%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
   </si>
   <si>
     <t>Peligroso</t>
@@ -123,28 +123,28 @@
     <t>30,6%</t>
   </si>
   <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
   </si>
   <si>
     <t>29,58%</t>
   </si>
   <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
   </si>
   <si>
     <t>30,1%</t>
   </si>
   <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
   </si>
   <si>
     <t>Sano y peligroso</t>
@@ -153,28 +153,28 @@
     <t>48,13%</t>
   </si>
   <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>54,19%</t>
   </si>
   <si>
     <t>53,44%</t>
   </si>
   <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
   </si>
   <si>
     <t>50,72%</t>
   </si>
   <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
   </si>
   <si>
     <t>Sano</t>
@@ -183,28 +183,28 @@
     <t>15,06%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
   </si>
   <si>
     <t>8,83%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
   </si>
   <si>
     <t>12,01%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
   </si>
   <si>
     <t>Muy sano</t>
@@ -213,12 +213,15 @@
     <t>0,32%</t>
   </si>
   <si>
-    <t>1,96%</t>
+    <t>1,56%</t>
   </si>
   <si>
     <t>0,16%</t>
   </si>
   <si>
+    <t>0,68%</t>
+  </si>
+  <si>
     <t>100%</t>
   </si>
   <si>
@@ -237,844 +240,865 @@
     <t>2,04%</t>
   </si>
   <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
   </si>
   <si>
     <t>2,14%</t>
   </si>
   <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>58,46%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>41,85%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>66,49%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>54,64%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
+    <t>0,97%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>0,87%</t>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
   </si>
   <si>
     <t>0,06%</t>
@@ -1083,109 +1107,103 @@
     <t>0,03%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
   </si>
   <si>
     <t>26,27%</t>
   </si>
   <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
   </si>
   <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
   </si>
   <si>
     <t>57,34%</t>
   </si>
   <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>59,1%</t>
   </si>
   <si>
     <t>57,7%</t>
   </si>
   <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
   </si>
   <si>
     <t>57,52%</t>
   </si>
   <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
   </si>
   <si>
     <t>11,16%</t>
   </si>
   <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,55%</t>
+    <t>0,54%</t>
   </si>
   <si>
     <t>0,18%</t>
@@ -1234,9 +1252,6 @@
   </si>
   <si>
     <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
   </si>
   <si>
     <t>99,34%</t>
@@ -1714,7 +1729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5669A6A6-171E-4125-B944-4C603D12CDD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AE36A0-7CFA-4ED4-B2E2-58047669C7EE}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2129,7 +2144,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,13 +2159,13 @@
         <v>273010</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>245</v>
@@ -2159,13 +2174,13 @@
         <v>260838</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>516</v>
@@ -2174,18 +2189,18 @@
         <v>533848</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -2203,7 +2218,7 @@
         <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2218,7 +2233,7 @@
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -2233,7 +2248,7 @@
         <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2248,13 +2263,13 @@
         <v>10004</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -2263,13 +2278,13 @@
         <v>11299</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7">
         <v>22</v>
@@ -2278,13 +2293,13 @@
         <v>21304</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2299,13 +2314,13 @@
         <v>114436</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>171</v>
@@ -2314,13 +2329,13 @@
         <v>172064</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>278</v>
@@ -2329,13 +2344,13 @@
         <v>286501</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,13 +2365,13 @@
         <v>251926</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>231</v>
@@ -2365,13 +2380,13 @@
         <v>233796</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>466</v>
@@ -2380,13 +2395,13 @@
         <v>485722</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2416,13 @@
         <v>113673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H15" s="7">
         <v>84</v>
@@ -2416,13 +2431,13 @@
         <v>84684</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M15" s="7">
         <v>193</v>
@@ -2431,13 +2446,13 @@
         <v>198357</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2452,13 +2467,13 @@
         <v>966</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2467,13 +2482,13 @@
         <v>2106</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2482,13 +2497,13 @@
         <v>3072</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,13 +2518,13 @@
         <v>491006</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>499</v>
@@ -2518,13 +2533,13 @@
         <v>503949</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>962</v>
@@ -2533,18 +2548,18 @@
         <v>994955</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2562,7 +2577,7 @@
         <v>12</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2577,7 +2592,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2592,7 +2607,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2607,13 +2622,13 @@
         <v>22776</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -2622,13 +2637,13 @@
         <v>9889</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -2637,13 +2652,13 @@
         <v>32665</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2673,13 @@
         <v>72180</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>86</v>
@@ -2673,13 +2688,13 @@
         <v>88092</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>157</v>
@@ -2688,13 +2703,13 @@
         <v>160272</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,13 +2724,13 @@
         <v>185912</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>224</v>
@@ -2724,13 +2739,13 @@
         <v>224844</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M21" s="7">
         <v>407</v>
@@ -2739,13 +2754,13 @@
         <v>410757</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2760,13 +2775,13 @@
         <v>36078</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>14</v>
@@ -2775,13 +2790,13 @@
         <v>12587</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>48</v>
@@ -2790,13 +2805,13 @@
         <v>48665</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,13 +2826,13 @@
         <v>996</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2832,7 +2847,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -2841,13 +2856,13 @@
         <v>996</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2877,13 @@
         <v>317943</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H24" s="7">
         <v>335</v>
@@ -2877,13 +2892,13 @@
         <v>335412</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M24" s="7">
         <v>644</v>
@@ -2892,18 +2907,18 @@
         <v>653356</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2921,7 +2936,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2936,7 +2951,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2951,7 +2966,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2981,13 @@
         <v>19122</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H26" s="7">
         <v>31</v>
@@ -2981,13 +2996,13 @@
         <v>30539</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="M26" s="7">
         <v>50</v>
@@ -2996,13 +3011,13 @@
         <v>49661</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +3032,13 @@
         <v>97403</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H27" s="7">
         <v>96</v>
@@ -3032,13 +3047,13 @@
         <v>92978</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M27" s="7">
         <v>194</v>
@@ -3047,13 +3062,13 @@
         <v>190381</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,13 +3083,13 @@
         <v>207596</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="H28" s="7">
         <v>226</v>
@@ -3083,13 +3098,13 @@
         <v>218183</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M28" s="7">
         <v>436</v>
@@ -3098,13 +3113,13 @@
         <v>425779</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3134,13 @@
         <v>32670</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -3134,13 +3149,13 @@
         <v>26947</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>21</v>
+        <v>185</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M29" s="7">
         <v>61</v>
@@ -3149,13 +3164,13 @@
         <v>59617</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3185,13 @@
         <v>1880</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -3185,13 +3200,13 @@
         <v>969</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
@@ -3200,13 +3215,13 @@
         <v>2849</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3236,13 @@
         <v>358671</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H31" s="7">
         <v>382</v>
@@ -3236,13 +3251,13 @@
         <v>369616</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M31" s="7">
         <v>744</v>
@@ -3251,18 +3266,18 @@
         <v>728287</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -3280,7 +3295,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3295,7 +3310,7 @@
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3310,7 +3325,7 @@
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3340,13 @@
         <v>7317</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -3340,13 +3355,13 @@
         <v>10202</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M33" s="7">
         <v>17</v>
@@ -3355,13 +3370,13 @@
         <v>17519</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3391,13 @@
         <v>64154</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H34" s="7">
         <v>82</v>
@@ -3391,13 +3406,13 @@
         <v>86917</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M34" s="7">
         <v>149</v>
@@ -3406,13 +3421,13 @@
         <v>151070</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3442,13 @@
         <v>107848</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H35" s="7">
         <v>93</v>
@@ -3442,13 +3457,13 @@
         <v>96578</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>84</v>
+        <v>219</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M35" s="7">
         <v>199</v>
@@ -3457,13 +3472,13 @@
         <v>204426</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3493,13 @@
         <v>23091</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
@@ -3493,13 +3508,13 @@
         <v>13971</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M36" s="7">
         <v>38</v>
@@ -3508,13 +3523,13 @@
         <v>37062</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3544,13 @@
         <v>899</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3550,7 +3565,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>194</v>
+        <v>67</v>
       </c>
       <c r="M37" s="7">
         <v>1</v>
@@ -3559,13 +3574,13 @@
         <v>899</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3595,13 @@
         <v>203308</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H38" s="7">
         <v>198</v>
@@ -3595,13 +3610,13 @@
         <v>207668</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M38" s="7">
         <v>404</v>
@@ -3610,18 +3625,18 @@
         <v>410976</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3639,7 +3654,7 @@
         <v>12</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3669,7 +3684,7 @@
         <v>12</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3699,13 @@
         <v>19567</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H40" s="7">
         <v>17</v>
@@ -3699,13 +3714,13 @@
         <v>17997</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M40" s="7">
         <v>37</v>
@@ -3714,13 +3729,13 @@
         <v>37564</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,13 +3750,13 @@
         <v>62982</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H41" s="7">
         <v>60</v>
@@ -3750,13 +3765,13 @@
         <v>62311</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M41" s="7">
         <v>122</v>
@@ -3765,13 +3780,13 @@
         <v>125292</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3801,13 @@
         <v>169038</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H42" s="7">
         <v>183</v>
@@ -3801,13 +3816,13 @@
         <v>187737</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>133</v>
+        <v>263</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="M42" s="7">
         <v>348</v>
@@ -3816,13 +3831,13 @@
         <v>356775</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3852,13 @@
         <v>18374</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H43" s="7">
         <v>10</v>
@@ -3852,13 +3867,13 @@
         <v>10100</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>142</v>
+        <v>273</v>
       </c>
       <c r="M43" s="7">
         <v>28</v>
@@ -3867,13 +3882,13 @@
         <v>28474</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>119</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,13 +3903,13 @@
         <v>849</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -3918,13 +3933,13 @@
         <v>849</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,13 +3954,13 @@
         <v>270811</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H45" s="7">
         <v>270</v>
@@ -3954,13 +3969,13 @@
         <v>278144</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M45" s="7">
         <v>536</v>
@@ -3969,18 +3984,18 @@
         <v>548955</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4013,7 +4028,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M46" s="7">
         <v>0</v>
@@ -4043,13 +4058,13 @@
         <v>26641</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H47" s="7">
         <v>27</v>
@@ -4058,13 +4073,13 @@
         <v>26951</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M47" s="7">
         <v>52</v>
@@ -4073,13 +4088,13 @@
         <v>53592</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4109,13 @@
         <v>157404</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H48" s="7">
         <v>146</v>
@@ -4109,13 +4124,13 @@
         <v>145861</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M48" s="7">
         <v>298</v>
@@ -4124,13 +4139,13 @@
         <v>303265</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4160,13 @@
         <v>376663</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="H49" s="7">
         <v>411</v>
@@ -4160,13 +4175,13 @@
         <v>424833</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="M49" s="7">
         <v>782</v>
@@ -4175,13 +4190,13 @@
         <v>801496</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4211,13 @@
         <v>50043</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H50" s="7">
         <v>36</v>
@@ -4211,13 +4226,13 @@
         <v>39053</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="M50" s="7">
         <v>83</v>
@@ -4226,13 +4241,13 @@
         <v>89095</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,7 +4283,7 @@
         <v>12</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -4298,13 +4313,13 @@
         <v>610751</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H52" s="7">
         <v>620</v>
@@ -4313,13 +4328,13 @@
         <v>636697</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M52" s="7">
         <v>1215</v>
@@ -4328,18 +4343,18 @@
         <v>1247448</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -4357,7 +4372,7 @@
         <v>12</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -4372,7 +4387,7 @@
         <v>12</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M53" s="7">
         <v>0</v>
@@ -4387,7 +4402,7 @@
         <v>12</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4417,13 @@
         <v>39084</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="H54" s="7">
         <v>38</v>
@@ -4417,13 +4432,13 @@
         <v>43793</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M54" s="7">
         <v>76</v>
@@ -4432,13 +4447,13 @@
         <v>82877</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>157</v>
+        <v>321</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4453,13 +4468,13 @@
         <v>206600</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H55" s="7">
         <v>245</v>
@@ -4468,13 +4483,13 @@
         <v>262643</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="M55" s="7">
         <v>446</v>
@@ -4483,13 +4498,13 @@
         <v>469243</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4519,13 @@
         <v>443661</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="H56" s="7">
         <v>408</v>
@@ -4519,13 +4534,13 @@
         <v>422513</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="M56" s="7">
         <v>847</v>
@@ -4534,13 +4549,13 @@
         <v>866173</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4570,13 @@
         <v>49653</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>336</v>
+        <v>21</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H57" s="7">
         <v>50</v>
@@ -4570,13 +4585,13 @@
         <v>51494</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>229</v>
+        <v>342</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>24</v>
+        <v>343</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="M57" s="7">
         <v>103</v>
@@ -4585,13 +4600,13 @@
         <v>101147</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4621,13 @@
         <v>3960</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>190</v>
+        <v>348</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="H58" s="7">
         <v>4</v>
@@ -4621,13 +4636,13 @@
         <v>3069</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>342</v>
+        <v>106</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M58" s="7">
         <v>8</v>
@@ -4636,13 +4651,13 @@
         <v>7029</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>233</v>
+        <v>352</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,13 +4672,13 @@
         <v>742958</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H59" s="7">
         <v>745</v>
@@ -4672,13 +4687,13 @@
         <v>783511</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M59" s="7">
         <v>1480</v>
@@ -4687,13 +4702,13 @@
         <v>1526469</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4716,7 +4731,7 @@
         <v>12</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4731,7 +4746,7 @@
         <v>12</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -4746,7 +4761,7 @@
         <v>12</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4776,13 @@
         <v>160607</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="H61" s="7">
         <v>165</v>
@@ -4776,13 +4791,13 @@
         <v>171936</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>350</v>
+        <v>248</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>279</v>
+        <v>358</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M61" s="7">
         <v>321</v>
@@ -4791,13 +4806,13 @@
         <v>332543</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4827,13 @@
         <v>858706</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H62" s="7">
         <v>960</v>
@@ -4827,13 +4842,13 @@
         <v>988027</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M62" s="7">
         <v>1802</v>
@@ -4842,13 +4857,13 @@
         <v>1846733</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4878,13 @@
         <v>1874037</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="H63" s="7">
         <v>1903</v>
@@ -4878,13 +4893,13 @@
         <v>1947871</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="M63" s="7">
         <v>3742</v>
@@ -4893,13 +4908,13 @@
         <v>3821908</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4929,13 @@
         <v>364687</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="H64" s="7">
         <v>259</v>
@@ -4929,13 +4944,13 @@
         <v>261858</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="M64" s="7">
         <v>618</v>
@@ -4944,13 +4959,13 @@
         <v>626545</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>378</v>
+        <v>25</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -4968,10 +4983,10 @@
         <v>57</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H65" s="7">
         <v>7</v>
@@ -4980,13 +4995,13 @@
         <v>6144</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="M65" s="7">
         <v>18</v>
@@ -4995,13 +5010,13 @@
         <v>16565</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +5031,13 @@
         <v>3268459</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H66" s="7">
         <v>3294</v>
@@ -5031,13 +5046,13 @@
         <v>3375835</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M66" s="7">
         <v>6501</v>
@@ -5046,18 +5061,18 @@
         <v>6644294</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -5081,7 +5096,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5B2D2C-3B90-44A2-AE01-BD4C25A6F682}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A76B8385-403A-4F01-A063-BDC1EA942A05}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5098,7 +5113,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5205,13 +5220,13 @@
         <v>260298</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H4" s="7">
         <v>538</v>
@@ -5220,13 +5235,13 @@
         <v>271403</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4" s="7">
         <v>869</v>
@@ -5235,13 +5250,13 @@
         <v>531700</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,7 +5277,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5277,7 +5292,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5292,7 +5307,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,7 +5328,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5328,7 +5343,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5343,7 +5358,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,7 +5379,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5379,7 +5394,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -5394,7 +5409,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,7 +5430,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5430,7 +5445,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5445,7 +5460,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,7 +5481,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5481,7 +5496,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -5496,7 +5511,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5526,13 @@
         <v>260298</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>538</v>
@@ -5526,13 +5541,13 @@
         <v>271403</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>869</v>
@@ -5541,18 +5556,18 @@
         <v>531700</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -5564,13 +5579,13 @@
         <v>519297</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>717</v>
@@ -5579,13 +5594,13 @@
         <v>554566</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1099</v>
@@ -5594,13 +5609,13 @@
         <v>1073864</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5621,7 +5636,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5636,7 +5651,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5651,7 +5666,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,7 +5687,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5687,7 +5702,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -5702,7 +5717,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,7 +5738,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5738,7 +5753,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5753,7 +5768,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,7 +5789,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -5789,7 +5804,7 @@
         <v>12</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -5804,7 +5819,7 @@
         <v>12</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,7 +5840,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5840,7 +5855,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5855,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5885,13 @@
         <v>519297</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H17" s="7">
         <v>717</v>
@@ -5885,13 +5900,13 @@
         <v>554566</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M17" s="7">
         <v>1099</v>
@@ -5900,18 +5915,18 @@
         <v>1073864</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -5923,13 +5938,13 @@
         <v>322240</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H18" s="7">
         <v>536</v>
@@ -5938,13 +5953,13 @@
         <v>373284</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M18" s="7">
         <v>896</v>
@@ -5953,13 +5968,13 @@
         <v>695524</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5980,7 +5995,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5995,7 +6010,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -6010,7 +6025,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6031,7 +6046,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6046,7 +6061,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6061,7 +6076,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6082,7 +6097,7 @@
         <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6097,7 +6112,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -6112,7 +6127,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,7 +6148,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6148,7 +6163,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -6163,7 +6178,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,7 +6199,7 @@
         <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6199,7 +6214,7 @@
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -6214,7 +6229,7 @@
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>399</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6244,13 @@
         <v>322240</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H24" s="7">
         <v>536</v>
@@ -6244,13 +6259,13 @@
         <v>373284</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M24" s="7">
         <v>896</v>
@@ -6259,18 +6274,18 @@
         <v>695524</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6282,13 +6297,13 @@
         <v>322240</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H25" s="7">
         <v>599</v>
@@ -6297,13 +6312,13 @@
         <v>428556</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M25" s="7">
         <v>891</v>
@@ -6312,13 +6327,13 @@
         <v>750796</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6339,7 +6354,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6369,7 +6384,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6390,7 +6405,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -6420,7 +6435,7 @@
         <v>12</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,7 +6456,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6471,7 +6486,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,7 +6507,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6522,7 +6537,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6543,7 +6558,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6573,7 +6588,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,13 +6603,13 @@
         <v>322240</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H31" s="7">
         <v>599</v>
@@ -6603,13 +6618,13 @@
         <v>428556</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M31" s="7">
         <v>891</v>
@@ -6618,18 +6633,18 @@
         <v>750796</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -6641,13 +6656,13 @@
         <v>196748</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H32" s="7">
         <v>495</v>
@@ -6656,13 +6671,13 @@
         <v>259513</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M32" s="7">
         <v>774</v>
@@ -6671,13 +6686,13 @@
         <v>456260</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6698,7 +6713,7 @@
         <v>12</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6713,7 +6728,7 @@
         <v>12</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -6728,7 +6743,7 @@
         <v>12</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,7 +6764,7 @@
         <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6764,7 +6779,7 @@
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -6779,7 +6794,7 @@
         <v>12</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6800,7 +6815,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6815,7 +6830,7 @@
         <v>12</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -6830,7 +6845,7 @@
         <v>12</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6851,7 +6866,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -6866,7 +6881,7 @@
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -6881,7 +6896,7 @@
         <v>12</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6902,7 +6917,7 @@
         <v>12</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -6917,7 +6932,7 @@
         <v>12</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -6932,7 +6947,7 @@
         <v>12</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,13 +6962,13 @@
         <v>196748</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H38" s="7">
         <v>495</v>
@@ -6962,13 +6977,13 @@
         <v>259513</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M38" s="7">
         <v>774</v>
@@ -6977,18 +6992,18 @@
         <v>456260</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -7000,13 +7015,13 @@
         <v>277223</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H39" s="7">
         <v>460</v>
@@ -7015,13 +7030,13 @@
         <v>275622</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M39" s="7">
         <v>831</v>
@@ -7030,13 +7045,13 @@
         <v>552845</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,7 +7072,7 @@
         <v>12</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -7072,7 +7087,7 @@
         <v>12</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -7087,7 +7102,7 @@
         <v>12</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7108,7 +7123,7 @@
         <v>12</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -7123,7 +7138,7 @@
         <v>12</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -7138,7 +7153,7 @@
         <v>12</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7159,7 +7174,7 @@
         <v>12</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -7174,7 +7189,7 @@
         <v>12</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M42" s="7">
         <v>0</v>
@@ -7189,7 +7204,7 @@
         <v>12</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7210,7 +7225,7 @@
         <v>12</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H43" s="7">
         <v>0</v>
@@ -7225,7 +7240,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -7240,7 +7255,7 @@
         <v>12</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,7 +7276,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -7276,7 +7291,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M44" s="7">
         <v>0</v>
@@ -7291,7 +7306,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7306,13 +7321,13 @@
         <v>277223</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H45" s="7">
         <v>460</v>
@@ -7321,13 +7336,13 @@
         <v>275622</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M45" s="7">
         <v>831</v>
@@ -7336,18 +7351,18 @@
         <v>552845</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7359,13 +7374,13 @@
         <v>627754</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H46" s="7">
         <v>960</v>
@@ -7374,13 +7389,13 @@
         <v>804203</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M46" s="7">
         <v>1559</v>
@@ -7389,13 +7404,13 @@
         <v>1431957</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7431,7 +7446,7 @@
         <v>12</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M47" s="7">
         <v>0</v>
@@ -7446,7 +7461,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7482,7 +7497,7 @@
         <v>12</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -7497,7 +7512,7 @@
         <v>12</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7533,7 +7548,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -7548,7 +7563,7 @@
         <v>12</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7584,7 +7599,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M50" s="7">
         <v>0</v>
@@ -7599,7 +7614,7 @@
         <v>12</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7635,7 +7650,7 @@
         <v>12</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M51" s="7">
         <v>0</v>
@@ -7650,7 +7665,7 @@
         <v>12</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -7665,13 +7680,13 @@
         <v>627754</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H52" s="7">
         <v>960</v>
@@ -7680,13 +7695,13 @@
         <v>804203</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M52" s="7">
         <v>1559</v>
@@ -7695,18 +7710,18 @@
         <v>1431957</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>10</v>
@@ -7718,13 +7733,13 @@
         <v>859428</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H53" s="7">
         <v>1062</v>
@@ -7733,13 +7748,13 @@
         <v>868434</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M53" s="7">
         <v>1824</v>
@@ -7748,13 +7763,13 @@
         <v>1727862</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -7775,7 +7790,7 @@
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="H54" s="7">
         <v>0</v>
@@ -7790,7 +7805,7 @@
         <v>12</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M54" s="7">
         <v>0</v>
@@ -7805,7 +7820,7 @@
         <v>12</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -7826,7 +7841,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="H55" s="7">
         <v>0</v>
@@ -7841,7 +7856,7 @@
         <v>12</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M55" s="7">
         <v>0</v>
@@ -7856,7 +7871,7 @@
         <v>12</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -7877,7 +7892,7 @@
         <v>12</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -7892,7 +7907,7 @@
         <v>12</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M56" s="7">
         <v>0</v>
@@ -7907,7 +7922,7 @@
         <v>12</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -7928,7 +7943,7 @@
         <v>12</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="H57" s="7">
         <v>0</v>
@@ -7943,7 +7958,7 @@
         <v>12</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M57" s="7">
         <v>0</v>
@@ -7958,7 +7973,7 @@
         <v>12</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -7979,7 +7994,7 @@
         <v>12</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="H58" s="7">
         <v>0</v>
@@ -7994,7 +8009,7 @@
         <v>12</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="M58" s="7">
         <v>0</v>
@@ -8009,7 +8024,7 @@
         <v>12</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -8024,13 +8039,13 @@
         <v>859428</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H59" s="7">
         <v>1062</v>
@@ -8039,13 +8054,13 @@
         <v>868434</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M59" s="7">
         <v>1824</v>
@@ -8054,13 +8069,13 @@
         <v>1727862</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -8077,13 +8092,13 @@
         <v>3385228</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H60" s="7">
         <v>5367</v>
@@ -8092,13 +8107,13 @@
         <v>3835581</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M60" s="7">
         <v>8743</v>
@@ -8107,13 +8122,13 @@
         <v>7220808</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -8134,7 +8149,7 @@
         <v>12</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -8149,7 +8164,7 @@
         <v>12</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M61" s="7">
         <v>0</v>
@@ -8164,7 +8179,7 @@
         <v>12</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -8185,7 +8200,7 @@
         <v>12</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -8200,7 +8215,7 @@
         <v>12</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -8215,7 +8230,7 @@
         <v>12</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -8236,7 +8251,7 @@
         <v>12</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -8251,7 +8266,7 @@
         <v>12</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -8266,7 +8281,7 @@
         <v>12</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -8287,7 +8302,7 @@
         <v>12</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -8302,7 +8317,7 @@
         <v>12</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M64" s="7">
         <v>0</v>
@@ -8317,7 +8332,7 @@
         <v>12</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -8338,7 +8353,7 @@
         <v>12</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H65" s="7">
         <v>0</v>
@@ -8353,7 +8368,7 @@
         <v>12</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="M65" s="7">
         <v>0</v>
@@ -8368,7 +8383,7 @@
         <v>12</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -8383,13 +8398,13 @@
         <v>3385228</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H66" s="7">
         <v>5367</v>
@@ -8398,13 +8413,13 @@
         <v>3835581</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M66" s="7">
         <v>8743</v>
@@ -8413,18 +8428,18 @@
         <v>7220808</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P44_2007-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P44_2007-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03AA1CF3-DD4F-446C-9850-9A57F01457CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{879A6DF1-801B-42E0-93DA-823367A54A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{69F6E4F5-51C6-4BA3-BD18-98DCE1F7AF36}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3FE45B3E-C9DE-44DC-9C7B-ABF01A4ED70F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -1575,7 +1575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7445DE-83E0-48B6-8A55-96189BE3D41E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB6A42E-BE18-4C26-9CAC-D89A935410D5}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2737,7 +2737,7 @@
         <v>226</v>
       </c>
       <c r="I24" s="7">
-        <v>218183</v>
+        <v>218182</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>163</v>
@@ -2890,7 +2890,7 @@
         <v>382</v>
       </c>
       <c r="I27" s="7">
-        <v>369616</v>
+        <v>369615</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>58</v>
